--- a/TradingThesis/figures/rsimacddata.xlsx
+++ b/TradingThesis/figures/rsimacddata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexT/Dropbox/SEN19R/FIRST/algorithmic-trading/TradingThesis/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8B3C9B-DF31-DE4C-BEE7-E5F1C59BE23C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897869A2-2E0C-D54C-8DC1-26D7D03AE598}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="2060" windowWidth="34260" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,11 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$L$3:$L$31</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$3:$L$31</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$L$2:$L$31</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$L$3:$L$31</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$L$3:$L$31</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$L$2:$L$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$L$3:$L$31</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$L$3:$L$31</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$L$2:$L$31</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$L$3:$L$31</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$L$3:$L$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -257,29 +256,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>RSI and MACD</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> - Notable Returns</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -428,7 +405,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="30"/>
         <c:axId val="2114860312"/>
         <c:axId val="2114867208"/>
       </c:barChart>
@@ -446,10 +423,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400"/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0"/>
+                  <a:rPr lang="en-US" b="0"/>
                   <a:t>Stocks</a:t>
                 </a:r>
               </a:p>
@@ -483,17 +460,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400"/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Percentage difference in profit compared to baseline (%)</a:t>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t> Difference in profit compared to baseline (%)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1100">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -516,6 +488,16 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
@@ -529,31 +511,11 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>RSI and MACD Total Performance Across All Stocks</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="boxWhisker" uniqueId="{B25B60F1-55D6-FB40-B311-F3A81AD0ED48}">
@@ -567,13 +529,35 @@
       <cx:axis id="0" hidden="1">
         <cx:catScaling gapWidth="1"/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling max="10" min="-10"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
-              <cx:v>Percentage difference in profit from baseline (%)</cx:v>
+              <cx:v> Difference in profit from baseline (%)</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:txPr>
@@ -581,25 +565,49 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
+                <a:defRPr sz="1400">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Calibri"/>
+                  <a:latin typeface="+mn-lt"/>
                 </a:rPr>
-                <a:t>Percentage difference in profit from baseline (%)</a:t>
+                <a:t> Difference in profit from baseline (%)</a:t>
               </a:r>
             </a:p>
           </cx:txPr>
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
@@ -1165,16 +1173,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1201,16 +1209,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>151730</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1246,8 +1254,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10013950" y="1035049"/>
-              <a:ext cx="8845550" cy="5212681"/>
+              <a:off x="12985750" y="4883149"/>
+              <a:ext cx="2114550" cy="3930651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1604,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="G2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1674,7 +1682,7 @@
         <v>-0.45900000000000002</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L12" si="1">J4-K4</f>
+        <f t="shared" ref="L4:L11" si="1">J4-K4</f>
         <v>-1.3009999999999999</v>
       </c>
     </row>
